--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2211592.218339582</v>
+        <v>-2214206.496956033</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>88.59266126419419</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>115.8619247783173</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>96.32286860052047</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1103483761872</v>
+        <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>91.28995390759859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>18.86122197913814</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -874,16 +874,16 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>33.36619356526433</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.0901856147613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>198.9038973615314</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610014</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499117</v>
+        <v>348.0256511202894</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176134</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012117</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514157</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428152</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306179</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671151</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797024</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,13 +2369,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777491</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652659</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541851</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,13 +3004,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972043</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.821523404874</v>
+        <v>1572.125536599785</v>
       </c>
       <c r="C2" t="n">
-        <v>913.8590064644625</v>
+        <v>1572.125536599785</v>
       </c>
       <c r="D2" t="n">
-        <v>913.8590064644625</v>
+        <v>1572.125536599785</v>
       </c>
       <c r="E2" t="n">
-        <v>913.8590064644627</v>
+        <v>1186.33728400154</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8731016748551</v>
+        <v>775.3513792119329</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>359.9830835812115</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510735003</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447445</v>
+        <v>520.5745606447449</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.8512030185038</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552358</v>
+        <v>1408.468993552359</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1903.50985287725</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2357.627637384227</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719472</v>
+        <v>2927.679802719474</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589158</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152599</v>
+        <v>2644.177727152601</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444808</v>
+        <v>2059.560695444809</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.560695444808</v>
+        <v>1962.264868575596</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.560695444808</v>
+        <v>1962.264868575596</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.421363468996</v>
+        <v>1572.125536599785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400834</v>
+        <v>931.3103593400832</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589564</v>
+        <v>756.8573300589562</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9229203977052</v>
+        <v>607.922920397705</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922496</v>
+        <v>448.6854653922495</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191346</v>
+        <v>302.1509074191345</v>
       </c>
       <c r="G3" t="n">
         <v>165.6295159672683</v>
@@ -4404,25 +4404,25 @@
         <v>73.59886104182668</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168901</v>
+        <v>591.3495759479367</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671326</v>
+        <v>924.3623438981792</v>
       </c>
       <c r="M3" t="n">
         <v>1332.329405070861</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324653</v>
+        <v>1765.502785324652</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>2139.552005769182</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4443,7 +4443,7 @@
         <v>2004.526960290582</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.37485205884</v>
+        <v>1769.374852058839</v>
       </c>
       <c r="W3" t="n">
         <v>1515.137495330638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.8687424774337</v>
+        <v>522.5153566286206</v>
       </c>
       <c r="C4" t="n">
-        <v>445.8687424774337</v>
+        <v>522.5153566286206</v>
       </c>
       <c r="D4" t="n">
-        <v>445.8687424774337</v>
+        <v>522.5153566286206</v>
       </c>
       <c r="E4" t="n">
-        <v>445.8687424774337</v>
+        <v>374.6022630462274</v>
       </c>
       <c r="F4" t="n">
-        <v>298.9787949795233</v>
+        <v>374.6022630462274</v>
       </c>
       <c r="G4" t="n">
-        <v>298.9787949795233</v>
+        <v>206.7667203253836</v>
       </c>
       <c r="H4" t="n">
-        <v>151.5817303659231</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945988</v>
+        <v>95.29667538946001</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778208</v>
+        <v>284.1726417778212</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386277</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945955</v>
+        <v>905.1640129945961</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>1507.614327944345</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>1724.491028290282</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>1772.158394480031</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>1772.158394480031</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>1549.824762095789</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202812</v>
+        <v>1260.714656707129</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143943</v>
+        <v>1260.714656707129</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774337</v>
+        <v>971.297486670168</v>
       </c>
       <c r="X4" t="n">
-        <v>445.8687424774337</v>
+        <v>743.3079357721507</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.8687424774337</v>
+        <v>522.5153566286206</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>515.2877924106863</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>100.2153422556827</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4668,28 +4668,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676408</v>
+        <v>1245.592769403052</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696235</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
         <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400714</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121646</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225068</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703112</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,25 +5279,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>803.8641191832227</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156992</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703104</v>
+        <v>985.5125840134624</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536378</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.932442825731</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138418</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138418</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576785</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576785</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725584</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6151,16 +6151,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,7 +6303,7 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K27" t="n">
         <v>562.8579153358621</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345484</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6649,10 +6649,10 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
@@ -6856,34 +6856,34 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7394,52 +7394,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961522</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,31 +7564,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525721</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447146</v>
+        <v>9.872575263447089</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.6219514102199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>252.9181001168926</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.013392379334846</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>75.97820982879104</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.586274966451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597307</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909865014</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.587414922129085</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113354</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.682081788449</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.3667421549</v>
+        <v>48691.36674215492</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
@@ -26323,25 +26323,25 @@
         <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982126</v>
@@ -26350,10 +26350,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973061</v>
+        <v>95186.4934397302</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359967</v>
+        <v>22978.01038359953</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15667.67952732126</v>
+        <v>15667.67952732123</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
@@ -26430,31 +26430,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="J4" t="n">
+        <v>19157.89151488701</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19157.89151488703</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19157.89151488705</v>
+      </c>
+      <c r="M4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19157.89151488703</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488705</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296513.791977615</v>
+        <v>-1296943.350844204</v>
       </c>
       <c r="C6" t="n">
-        <v>-231896.3682844475</v>
+        <v>-231896.3682844471</v>
       </c>
       <c r="D6" t="n">
         <v>-136709.8748447169</v>
       </c>
       <c r="E6" t="n">
-        <v>-377166.0289063056</v>
+        <v>-377200.7668317411</v>
       </c>
       <c r="F6" t="n">
-        <v>-51753.56709895017</v>
+        <v>-51788.30502438589</v>
       </c>
       <c r="G6" t="n">
-        <v>-51753.56709895021</v>
+        <v>-51788.3050243859</v>
       </c>
       <c r="H6" t="n">
-        <v>-51753.56709895023</v>
+        <v>-51788.30502438587</v>
       </c>
       <c r="I6" t="n">
-        <v>-51753.56709895018</v>
+        <v>-51788.30502438587</v>
       </c>
       <c r="J6" t="n">
-        <v>-274343.0201107853</v>
+        <v>-274343.0201107854</v>
       </c>
       <c r="K6" t="n">
-        <v>-83721.88501258081</v>
+        <v>-83721.88501258069</v>
       </c>
       <c r="L6" t="n">
-        <v>-60743.87462898115</v>
+        <v>-60743.87462898119</v>
       </c>
       <c r="M6" t="n">
         <v>-145798.902564493</v>
@@ -26558,10 +26558,10 @@
         <v>-60743.87462898114</v>
       </c>
       <c r="O6" t="n">
-        <v>-80171.59262261297</v>
+        <v>-80171.59262261289</v>
       </c>
       <c r="P6" t="n">
-        <v>-60743.87462898114</v>
+        <v>-60743.87462898115</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396949</v>
+        <v>72.85564646396915</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500289</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500266</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500289</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>261.2415708220561</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553736</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>87.61910097505958</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061419</v>
+        <v>38.21228753576423</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29089,13 +29089,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.288636322337378e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.6556266698102</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224528</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541503</v>
+        <v>0.1439039227541504</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,28 +31197,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833792064823379</v>
+        <v>1.83379206482338</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735286</v>
+        <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>261.5336801130329</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33901,7 @@
         <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159424</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669222</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742437</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159424</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742437</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817574</v>
@@ -34375,7 +34375,7 @@
         <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159424</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420754</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742437</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8180000031434</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.53545478085</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310393</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.783804432688</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37558,7 +37558,7 @@
         <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924726</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591396</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367769</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754087</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
